--- a/data/trans_camb/POLIPATOLOGIA_5-Estudios-trans_camb.xlsx
+++ b/data/trans_camb/POLIPATOLOGIA_5-Estudios-trans_camb.xlsx
@@ -685,47 +685,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>0,2; 5,25</t>
+          <t>0,21; 5,06</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-0,06; 4,71</t>
+          <t>-0,58; 4,36</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>11,84; 19,13</t>
+          <t>11,37; 18,51</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>3,95; 9,93</t>
+          <t>3,93; 9,68</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>5,02; 11,54</t>
+          <t>4,81; 11,61</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>21,9; 28,01</t>
+          <t>21,67; 28,4</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>3,2; 7,32</t>
+          <t>3,03; 7,04</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>3,3; 7,58</t>
+          <t>3,54; 7,68</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>18,4; 23,48</t>
+          <t>18,4; 23,39</t>
         </is>
       </c>
     </row>
@@ -791,47 +791,47 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>2,22; 83,68</t>
+          <t>0,92; 78,59</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-0,78; 78,44</t>
+          <t>-6,82; 69,61</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>143,46; 316,54</t>
+          <t>134,15; 293,85</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>26,73; 84,65</t>
+          <t>28,19; 79,2</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>35,58; 97,27</t>
+          <t>32,96; 95,25</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>147,12; 237,28</t>
+          <t>148,63; 238,32</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>27,37; 74,45</t>
+          <t>26,64; 72,03</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>29,49; 77,69</t>
+          <t>30,35; 78,23</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>160,91; 244,68</t>
+          <t>159,75; 240,41</t>
         </is>
       </c>
     </row>
@@ -901,47 +901,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-0,92; 0,67</t>
+          <t>-0,91; 0,74</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-0,49; 1,23</t>
+          <t>-0,51; 1,21</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>2,69; 5,62</t>
+          <t>2,45; 5,68</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-0,28; 2,38</t>
+          <t>-0,29; 2,41</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>1,65; 4,45</t>
+          <t>1,64; 4,57</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>7,53; 42,35</t>
+          <t>7,46; 38,77</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-0,32; 1,2</t>
+          <t>-0,4; 1,15</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>0,86; 2,47</t>
+          <t>0,92; 2,5</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>5,66; 26,1</t>
+          <t>5,61; 25,01</t>
         </is>
       </c>
     </row>
@@ -1007,47 +1007,47 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-46,02; 65,97</t>
+          <t>-45,57; 70,55</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-26,14; 116,55</t>
+          <t>-26,36; 112,44</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>145,46; 516,97</t>
+          <t>141,69; 537,02</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-10,84; 104,26</t>
+          <t>-8,38; 106,1</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>44,4; 194,4</t>
+          <t>44,08; 204,65</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>240,63; 1772,47</t>
+          <t>240,71; 1668,82</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-12,75; 68,27</t>
+          <t>-16,37; 64,49</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>32,26; 135,78</t>
+          <t>34,33; 140,57</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>242,49; 1113,21</t>
+          <t>239,35; 1246,43</t>
         </is>
       </c>
     </row>
@@ -1117,47 +1117,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-2,63; 1,18</t>
+          <t>-2,65; 1,08</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-2,12; 1,85</t>
+          <t>-1,91; 1,9</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-0,18; 3,66</t>
+          <t>-0,0; 3,66</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-0,36; 4,08</t>
+          <t>-0,42; 3,8</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-0,66; 3,51</t>
+          <t>-0,48; 3,53</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>4,59; 8,67</t>
+          <t>4,44; 8,86</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-1,04; 1,69</t>
+          <t>-1,04; 1,97</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-0,72; 2,07</t>
+          <t>-0,63; 2,02</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>2,84; 5,58</t>
+          <t>2,81; 5,59</t>
         </is>
       </c>
     </row>
@@ -1223,47 +1223,47 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-88,21; 127,16</t>
+          <t>-89,18; 133,35</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-68,59; 180,99</t>
+          <t>-64,73; 160,01</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-9,75; 303,31</t>
+          <t>-12,16; 277,49</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-23,32; 407,33</t>
+          <t>-21,98; 411,61</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-39,05; 330,2</t>
+          <t>-25,39; 357,69</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>151,31; 954,12</t>
+          <t>146,88; 924,25</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>-44,42; 119,16</t>
+          <t>-43,26; 156,0</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-29,49; 144,85</t>
+          <t>-27,44; 150,1</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>99,95; 444,62</t>
+          <t>96,88; 440,54</t>
         </is>
       </c>
     </row>
@@ -1333,47 +1333,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-0,46; 1,29</t>
+          <t>-0,53; 1,31</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-0,73; 0,97</t>
+          <t>-0,79; 1,02</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>2,7; 5,71</t>
+          <t>2,76; 5,8</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>1,89; 4,5</t>
+          <t>1,92; 4,51</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>1,85; 4,67</t>
+          <t>1,61; 4,42</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>9,09; 33,05</t>
+          <t>9,1; 29,19</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>1,0; 2,57</t>
+          <t>0,95; 2,63</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>0,84; 2,52</t>
+          <t>0,78; 2,51</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>6,61; 19,15</t>
+          <t>6,6; 18,52</t>
         </is>
       </c>
     </row>
@@ -1439,47 +1439,47 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-12,61; 43,16</t>
+          <t>-13,98; 42,44</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-19,18; 32,62</t>
+          <t>-20,78; 33,97</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>77,36; 194,59</t>
+          <t>77,48; 187,45</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>24,89; 71,99</t>
+          <t>25,06; 72,55</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>24,8; 73,93</t>
+          <t>21,65; 73,23</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>130,1; 514,89</t>
+          <t>132,0; 444,26</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>18,88; 55,13</t>
+          <t>17,49; 56,33</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>15,4; 53,89</t>
+          <t>13,39; 52,7</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>127,54; 382,47</t>
+          <t>126,44; 369,11</t>
         </is>
       </c>
     </row>
